--- a/src/excelformate/tbl_customer.xlsx
+++ b/src/excelformate/tbl_customer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t xml:space="preserve">cust_type</t>
   </si>
@@ -203,12 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">njnjnjn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">njnjknjsncjs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwioowjwjwdji</t>
   </si>
   <si>
     <t xml:space="preserve">wkwkwk</t>
@@ -233,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -258,6 +252,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -312,7 +321,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,8 +334,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,43 +363,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="22.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="24.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="26.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="31.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="32.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="38.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="31" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="18.38"/>
   </cols>
   <sheetData>
@@ -505,279 +512,130 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="5" t="n">
         <v>9999999</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="5" t="n">
         <v>8888</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Y2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Z2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AA2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AB2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AC2" s="3" t="n">
+        <v>89890</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>89889</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AF2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="0" t="s">
+      <c r="AG2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="5" t="n">
+        <v>88899</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>988</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="AK2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>88899</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>988</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
+      <c r="AL2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AK2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM2" s="0" t="s">
+      <c r="AM2" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="test@gmail.com"/>
-    <hyperlink ref="AG2" r:id="rId2" display="test@gmail.com"/>
+    <hyperlink ref="K2" r:id="rId2" display="sdds.com"/>
+    <hyperlink ref="AG2" r:id="rId3" display="test@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
